--- a/results/mp/logistic/corona/confidence/84/masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,67 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
+    <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>hell</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>low</t>
@@ -91,97 +109,85 @@
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>lower</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>on</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>corona</t>
   </si>
   <si>
     <t>and</t>
@@ -190,187 +196,187 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>good</t>
+    <t>gt</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>nice</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>dear</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>shopping</t>
@@ -379,19 +385,19 @@
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -836,31 +842,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L3">
-        <v>110</v>
-      </c>
-      <c r="M3">
-        <v>110</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -889,16 +895,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -918,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -968,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8047945205479452</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -986,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.8484848484848485</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>0.8421052631578947</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1318,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.828125</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6956521739130435</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0.8276762402088773</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.576271186440678</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.7926829268292683</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1536,31 +1542,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.7906976744186046</v>
+        <v>0.7875</v>
       </c>
       <c r="L17">
+        <v>126</v>
+      </c>
+      <c r="M17">
+        <v>126</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>34</v>
-      </c>
-      <c r="M17">
-        <v>34</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5570469798657718</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>0.7830188679245284</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L18">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,38 +1624,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5490196078431373</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L19">
         <v>28</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>28</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>23</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L19">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5406976744186046</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C20">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D20">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>0.775</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L20">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M20">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5238095238095238</v>
+        <v>0.55</v>
       </c>
       <c r="C21">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22">
-        <v>0.7659574468085106</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>0.7464788732394366</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L23">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4516129032258064</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4363636363636363</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4361111111111111</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C26">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L26">
         <v>20</v>
@@ -2010,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4358974358974359</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2074,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4133333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K28">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3636363636363636</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3611111111111111</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,31 +2192,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6875</v>
       </c>
       <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.358974358974359</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3513513513513514</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32">
         <v>0.6666666666666666</v>
@@ -2318,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3392857142857143</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>0.6617647058823529</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L33">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M33">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2987012987012987</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,31 +2442,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>0.6234309623430963</v>
+      </c>
+      <c r="L35">
+        <v>149</v>
+      </c>
+      <c r="M35">
+        <v>149</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>90</v>
-      </c>
-      <c r="K35">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L35">
-        <v>18</v>
-      </c>
-      <c r="M35">
-        <v>18</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.257936507936508</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C36">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2486,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K36">
-        <v>0.6382978723404256</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2510,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1875</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2536,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K37">
-        <v>0.625</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2560,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2568,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1501340482573726</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2586,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K38">
-        <v>0.5846153846153846</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2610,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2618,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07666666666666666</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2636,31 +2642,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K39">
-        <v>0.5728813559322034</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="L39">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M39">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2668,37 +2674,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01594533029612756</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2718,13 +2724,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01550387596899225</v>
+        <v>0.08</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2736,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1143</v>
+        <v>276</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2760,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2768,37 +2774,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01419354838709678</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3056</v>
+        <v>1143</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2810,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2818,37 +2824,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01311475409836066</v>
+        <v>0.01485714285714286</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>0.35</v>
+      </c>
+      <c r="F43">
+        <v>0.65</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>862</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L43">
         <v>36</v>
       </c>
-      <c r="E43">
-        <v>0.22</v>
-      </c>
-      <c r="F43">
-        <v>0.78</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2107</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K43">
-        <v>0.5648535564853556</v>
-      </c>
-      <c r="L43">
-        <v>135</v>
-      </c>
       <c r="M43">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2860,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2868,37 +2874,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0126528890763391</v>
+        <v>0.01320876288659794</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E44">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>0.79</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2341</v>
+        <v>3063</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44">
-        <v>0.5555555555555556</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2910,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2918,37 +2924,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01231310466138962</v>
+        <v>0.01267962806424345</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E45">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.8200000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1123</v>
+        <v>2336</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K45">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2968,37 +2974,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00865979381443299</v>
+        <v>0.01122544434050514</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2404</v>
+        <v>2114</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K46">
-        <v>0.5428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3010,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3018,37 +3024,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.008268059181897302</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="F47">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K47">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3060,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3068,13 +3074,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007661290322580645</v>
+        <v>0.006647864625302175</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>0.49</v>
@@ -3086,19 +3092,19 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>4922</v>
+        <v>4931</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K48">
-        <v>0.5280898876404494</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3118,37 +3124,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.006815968841285297</v>
+        <v>0.00663544106167057</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E49">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="F49">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>5100</v>
+        <v>5090</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3168,37 +3174,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.006277609858172518</v>
+        <v>0.00557361820715281</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>4274</v>
+        <v>4282</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3218,28 +3224,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004927975739196361</v>
+        <v>0.005363036303630363</v>
       </c>
       <c r="C51">
         <v>13</v>
       </c>
       <c r="D51">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="F51">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2625</v>
+        <v>2411</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K51">
         <v>0.4444444444444444</v>
@@ -3264,43 +3270,91 @@
       </c>
     </row>
     <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.00535264483627204</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>0.6</v>
+      </c>
+      <c r="F52">
+        <v>0.4</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3159</v>
+      </c>
       <c r="J52" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K52">
-        <v>0.4390243902439024</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M52">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.005303030303030303</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>47</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>0.3</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2626</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L53">
         <v>19</v>
       </c>
-      <c r="N52">
-        <v>0.95</v>
-      </c>
-      <c r="O52">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="L53">
-        <v>21</v>
-      </c>
       <c r="M53">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3312,21 +3366,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K54">
-        <v>0.3974358974358974</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3338,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K55">
-        <v>0.3835616438356164</v>
+        <v>0.296875</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3369,10 +3423,10 @@
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K56">
-        <v>0.3823529411764706</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L56">
         <v>13</v>
@@ -3390,21 +3444,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K57">
-        <v>0.328125</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3416,21 +3470,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K58">
-        <v>0.3220338983050847</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3442,41 +3496,41 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K59">
-        <v>0.2950819672131147</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59">
         <v>18</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K60">
-        <v>0.2280701754385965</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L60">
         <v>13</v>
@@ -3494,47 +3548,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K61">
-        <v>0.1388888888888889</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K62">
-        <v>0.1129032258064516</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3546,47 +3600,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>110</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K63">
-        <v>0.08108108108108109</v>
+        <v>0.04212454212454213</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>170</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K64">
-        <v>0.04567307692307692</v>
+        <v>0.0360576923076923</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3598,73 +3652,73 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K65">
-        <v>0.03347280334728033</v>
+        <v>0.03341687552213868</v>
       </c>
       <c r="L65">
         <v>40</v>
       </c>
       <c r="M65">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N65">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O65">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K66">
-        <v>0.03302752293577982</v>
+        <v>0.03125</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O66">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>527</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K67">
-        <v>0.01325757575757576</v>
+        <v>0.02036021926389977</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N67">
         <v>0.68</v>
@@ -3676,215 +3730,267 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1563</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="K68">
-        <v>0.0131578947368421</v>
+        <v>0.01347449470644851</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="O68">
-        <v>0.27</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2625</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="K69">
-        <v>0.01254705144291092</v>
+        <v>0.01241068070703272</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N69">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="O69">
-        <v>0.08999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>2361</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K70">
-        <v>0.01174628034455756</v>
+        <v>0.01073232323232323</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M70">
         <v>27</v>
       </c>
       <c r="N70">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="O70">
-        <v>0.4399999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1262</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K71">
-        <v>0.01097522734399498</v>
+        <v>0.01045587620242576</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N71">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O71">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>3154</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K72">
-        <v>0.00825082508250825</v>
+        <v>0.008634868421052632</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N72">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="O72">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2404</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K73">
-        <v>0.007260992335619202</v>
+        <v>0.007990645098421361</v>
       </c>
       <c r="L73">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M73">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N73">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="O73">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>4922</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K74">
-        <v>0.006277609858172518</v>
+        <v>0.007851758793969849</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N74">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O74">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>4274</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K75">
-        <v>0.005847953216374269</v>
+        <v>0.006447713076768084</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M75">
         <v>65</v>
       </c>
       <c r="N75">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="O75">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>5100</v>
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76">
+        <v>0.005534269902085994</v>
+      </c>
+      <c r="L76">
+        <v>13</v>
+      </c>
+      <c r="M76">
+        <v>43</v>
+      </c>
+      <c r="N76">
+        <v>0.3</v>
+      </c>
+      <c r="O76">
+        <v>0.7</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77">
+        <v>0.005111524163568773</v>
+      </c>
+      <c r="L77">
+        <v>22</v>
+      </c>
+      <c r="M77">
+        <v>46</v>
+      </c>
+      <c r="N77">
+        <v>0.48</v>
+      </c>
+      <c r="O77">
+        <v>0.52</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4282</v>
       </c>
     </row>
   </sheetData>
